--- a/AllData.xlsx
+++ b/AllData.xlsx
@@ -62,6 +62,23 @@
     </textPr>
   </connection>
 </connections>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>AvgTime</t>
+  </si>
+  <si>
+    <t>Throughput</t>
+  </si>
+  <si>
+    <t>AvgTime (also of the different users)</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -685,49 +702,51 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
+            <c:strRef>
               <c:f>Foglio1!$J:$J</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1048576"/>
+              <c:strCache>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>2.4594320000000001</c:v>
+                  <c:v>2,459432</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.2605279999999999</c:v>
+                  <c:v>5,260528</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.3923179999999999</c:v>
+                  <c:v>3,392318</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.944858</c:v>
+                  <c:v>3,944858</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.9726920000000003</c:v>
+                  <c:v>4,972692</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.4594320000000001</c:v>
+                  <c:v>2,459432</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.2605279999999999</c:v>
+                  <c:v>5,260528</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.3923179999999999</c:v>
+                  <c:v>3,392318</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.944858</c:v>
+                  <c:v>3,944858</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.9726920000000003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>4,972692</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>ID</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
@@ -4814,14 +4833,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
@@ -4854,11 +4873,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="data2" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="data1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="data1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="data2" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5158,10 +5177,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5650,6 +5669,20 @@
         <v>960</v>
       </c>
     </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J14" t="s">
+        <v>0</v>
+      </c>
+      <c r="K14" t="s">
+        <v>1</v>
+      </c>
+      <c r="L14" t="s">
+        <v>2</v>
+      </c>
+      <c r="M14" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
